--- a/Plugins/SpecFlow.ExternalData/sample/ExternalDataSample/Features/products.xlsx
+++ b/Plugins/SpecFlow.ExternalData/sample/ExternalDataSample/Features/products.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\SpecFlow\SpecFlow\Plugins\SpecFlow.ExternalData\SpecFlow.ExternalData.SpecFlowPlugin.UnitTests\SampleFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\SpecFlow\SpecFlow\Plugins\SpecFlow.ExternalData\sample\ExternalDataSample\Features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A21E11E-F6C0-4080-A2D5-6EFBFE031141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2952F495-FB14-45FC-8EB9-4F7D4E134FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="other products" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>product</t>
   </si>
@@ -47,17 +49,44 @@
   </si>
   <si>
     <t>orange</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>marvin</t>
+  </si>
+  <si>
+    <t>marvin@somewhere.com</t>
+  </si>
+  <si>
+    <t>ford</t>
+  </si>
+  <si>
+    <t>ford@somewhere.com</t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>yellow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +217,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -490,7 +527,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -534,12 +571,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -574,6 +613,7 @@
     <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
     <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
@@ -584,7 +624,26 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -618,12 +677,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="product"/>
-    <tableColumn id="2" name="price" dataDxfId="0" dataCellStyle="Currency"/>
-    <tableColumn id="3" name="color"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="product"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="price" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="color"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6CD103C-80E0-42B8-AE08-54CAEB3A45AD}" name="Table13" displayName="Table13" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{65A4E8E7-E96F-4CC5-9644-39335711753B}" name="product"/>
+    <tableColumn id="2" xr3:uid="{A3D577C4-56F8-4F93-8F8A-E81F12BDA776}" name="price" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{55FDAE85-F78A-48B6-8155-748F86720115}" name="color"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -925,21 +996,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -950,7 +1021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -961,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -972,7 +1043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -981,6 +1052,105 @@
       </c>
       <c r="C4" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5AF612-0598-4F32-B173-796C6BD8CD7D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F4B56ED5-47A6-4372-A926-B6BF8189BFB1}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9C6CE8BC-9514-408D-AAB5-907E1878F936}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2B8D6E-3E32-4B40-B8A1-E44D2A590CAB}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
